--- a/No-Clasificadas/Carnet-NPEs-Pruebas.xlsx
+++ b/No-Clasificadas/Carnet-NPEs-Pruebas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fabio.ramos\Desktop\DIN\Querys\No-Clasificadas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1A52F7C-1A19-4E63-B692-475827AA953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67102A0A-BEF0-4B90-B1D1-91BC9A4F4533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="130">
   <si>
     <t>Ciclo</t>
   </si>
@@ -76,12 +76,6 @@
     <t>INGENIERÍA EN SISTEMAS Y COMPUTACIÓN</t>
   </si>
   <si>
-    <t>LICENCIATURA EN PSICOLOGÍA</t>
-  </si>
-  <si>
-    <t>INGENIERÍA INDUSTRIAL</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN ADMINISTRACIÓN DE EMPRESAS NO PRESENCIAL</t>
   </si>
   <si>
@@ -100,9 +94,6 @@
     <t>LICENCIATURA EN CIENCIAS JURÍDICAS NO PRESENCIAL</t>
   </si>
   <si>
-    <t>INGENIERÍA EN SISTEMAS Y COMPUTACIÓN NO PRESENCIAL</t>
-  </si>
-  <si>
     <t>31-4249-2022</t>
   </si>
   <si>
@@ -115,24 +106,6 @@
     <t xml:space="preserve"> MICHELLE BERENICE RAMIREZ GONZALEZ </t>
   </si>
   <si>
-    <t>46-1873-2022</t>
-  </si>
-  <si>
-    <t>ABEL ALBERTO  ARGUETA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>20-0849-2021</t>
-  </si>
-  <si>
-    <t>ABEL ENRIQUE MEJIA ALAS</t>
-  </si>
-  <si>
-    <t>32-4550-2009</t>
-  </si>
-  <si>
-    <t>ABEL ERNESTO ARGUETA MARTINEZ</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN MERCADEO NO PRESENCIAL</t>
   </si>
   <si>
@@ -166,36 +139,6 @@
     <t>TÉCNICO EN INGENIERÍA DE REDES COMPUTACIONALES</t>
   </si>
   <si>
-    <t>13-0878-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDIEL ALEJANDRO  SALGADO GOMEZ </t>
-  </si>
-  <si>
-    <t>22-1577-2023</t>
-  </si>
-  <si>
-    <t>ABDIEL ALEXANDER PEREZ FLORES</t>
-  </si>
-  <si>
-    <t>32-2069-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABEL ALEJANDRO  DURAN GONZALEZ </t>
-  </si>
-  <si>
-    <t>25-1449-2022</t>
-  </si>
-  <si>
-    <t>ABEL ANTONIO ESCOBAR MENDEZ</t>
-  </si>
-  <si>
-    <t>29-1636-2023</t>
-  </si>
-  <si>
-    <t>ABEL ERNESTO  PORTILLO SANCHEZ</t>
-  </si>
-  <si>
     <t xml:space="preserve"> ALLISON DANIELA RODRIGUEZ CORDERO</t>
   </si>
   <si>
@@ -226,214 +169,262 @@
     <t xml:space="preserve"> MIRNA RAQUEL PEREZ</t>
   </si>
   <si>
-    <t>03-2741-2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ABDIAS ELISEO  MONICO LIZAMA </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> JASMIN ELIZABETH ZAVALETA DE MUÑOZ</t>
-  </si>
-  <si>
-    <t>TÉCNICO EN MERCADEO Y VENTAS NO PRESENCIAL</t>
-  </si>
-  <si>
     <t>TÉCNICO EN DISEÑO GRÁFICO</t>
   </si>
   <si>
-    <t>02-2023</t>
-  </si>
-  <si>
-    <t>2023-11-17 00:00:00.000</t>
-  </si>
-  <si>
-    <t>2023-12-17 00:00:00.000</t>
-  </si>
-  <si>
     <t>54-0999-2021</t>
   </si>
   <si>
-    <t>0313007500000022940670220238</t>
-  </si>
-  <si>
-    <t>0313006300000022280260220239</t>
-  </si>
-  <si>
-    <t>0313006300000022280270220237</t>
-  </si>
-  <si>
     <t>60-2975-2022</t>
   </si>
   <si>
     <t xml:space="preserve"> FRANKLIN ALEXANDER  CHICHIQUE MARTINEZ </t>
   </si>
   <si>
-    <t>0313006300000023814360220233</t>
-  </si>
-  <si>
-    <t>0313006300000023814370220231</t>
-  </si>
-  <si>
-    <t>0313006300000024078760220230</t>
-  </si>
-  <si>
-    <t>0313006300000024078770220238</t>
-  </si>
-  <si>
-    <t>0313007500000023059260220232</t>
-  </si>
-  <si>
-    <t>0313007500000023059270220230</t>
-  </si>
-  <si>
-    <t>0313007500000022936060220234</t>
-  </si>
-  <si>
-    <t>0313007500000022936070220232</t>
-  </si>
-  <si>
-    <t>03-4206-2019</t>
-  </si>
-  <si>
-    <t>0313007500000021929360220237</t>
-  </si>
-  <si>
-    <t>0313007500000021929370220235</t>
-  </si>
-  <si>
     <t>31-1085-2019</t>
   </si>
   <si>
     <t xml:space="preserve"> JOHANNA PAOLA MONGE CARAVANTES</t>
   </si>
   <si>
-    <t>0313006300000021564860220231</t>
-  </si>
-  <si>
-    <t>0313006300000021564870220239</t>
-  </si>
-  <si>
-    <t>0313007500000023667960220235</t>
-  </si>
-  <si>
-    <t>0313007500000023667970220233</t>
-  </si>
-  <si>
-    <t>0313006300000021581060220233</t>
-  </si>
-  <si>
-    <t>0313006300000021581070220231</t>
-  </si>
-  <si>
-    <t>0313007500000024094560220235</t>
-  </si>
-  <si>
-    <t>0313007500000024094570220233</t>
-  </si>
-  <si>
     <t>64-4098-2021</t>
   </si>
   <si>
     <t xml:space="preserve"> MIRIAM MAYANIN  BAIRES DE CHAVEZ </t>
   </si>
   <si>
-    <t>0313007500000023417260220232</t>
-  </si>
-  <si>
-    <t>0313007500000023417270220230</t>
-  </si>
-  <si>
-    <t>0313007500000024594660220233</t>
-  </si>
-  <si>
-    <t>0313007500000024594670220231</t>
-  </si>
-  <si>
-    <t>0313007500000023872370220235</t>
-  </si>
-  <si>
-    <t>0313006300000021028760220238</t>
-  </si>
-  <si>
-    <t>0313006300000021028770220236</t>
-  </si>
-  <si>
-    <t>29-4468-2023</t>
-  </si>
-  <si>
-    <t>AARON LOMBARDO PEREIRA ESCOBAR</t>
-  </si>
-  <si>
-    <t>0313007500000024793960220238</t>
-  </si>
-  <si>
-    <t>0313007500000024793970220236</t>
-  </si>
-  <si>
-    <t>0313007500000023790960220235</t>
-  </si>
-  <si>
-    <t>0313007500000023790970220233</t>
-  </si>
-  <si>
-    <t>0313006300000024352360220233</t>
-  </si>
-  <si>
-    <t>0313006300000024352370220231</t>
-  </si>
-  <si>
-    <t>0313006300000024422560220232</t>
-  </si>
-  <si>
-    <t>0313006300000024422570220230</t>
-  </si>
-  <si>
-    <t>0313007500000023704160220234</t>
-  </si>
-  <si>
-    <t>0313007500000023704170220232</t>
-  </si>
-  <si>
-    <t>0313006300000024472460220238</t>
-  </si>
-  <si>
-    <t>0313006300000024472470220236</t>
-  </si>
-  <si>
-    <t>0313006300000023661560220236</t>
-  </si>
-  <si>
-    <t>0313006300000023661570220234</t>
-  </si>
-  <si>
-    <t>58-4329-2023</t>
-  </si>
-  <si>
-    <t>ABEL EDGARDO LOZANO VELASQUEZ</t>
-  </si>
-  <si>
-    <t>0313007500000024777360220237</t>
-  </si>
-  <si>
-    <t>0313007500000024777370220235</t>
-  </si>
-  <si>
-    <t>0313006300000022925560220236</t>
-  </si>
-  <si>
-    <t>0313006300000022925570220234</t>
-  </si>
-  <si>
-    <t>0313007500000024428460220236</t>
-  </si>
-  <si>
-    <t>0313007500000024428470220234</t>
-  </si>
-  <si>
-    <t>0313006300000013360760220235</t>
-  </si>
-  <si>
-    <t>0313006300000013360770220233</t>
+    <t>01-2024</t>
+  </si>
+  <si>
+    <t>10-4773-2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ESTEMBER ALBEIRO  ORELLANA FLORES</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN MERCADEO BILINGÜE CON ÉNFASIS EN INGLÉS</t>
+  </si>
+  <si>
+    <t>0313005000000014799460120241</t>
+  </si>
+  <si>
+    <t>2024-05-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>0313005000000014799470120249</t>
+  </si>
+  <si>
+    <t>2024-06-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>0313007700000022940660120248</t>
+  </si>
+  <si>
+    <t>0313007700000022940670120246</t>
+  </si>
+  <si>
+    <t>03-2521-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BRYAN CHRISTOPHER MARTINEZ GUEVARA</t>
+  </si>
+  <si>
+    <t>0313007700000022533860120249</t>
+  </si>
+  <si>
+    <t>0313007700000022533870120247</t>
+  </si>
+  <si>
+    <t>13-1594-2024</t>
+  </si>
+  <si>
+    <t>EVELYN NINETH  MORÁN IGLESIAS</t>
+  </si>
+  <si>
+    <t>0313006500000025110660120249</t>
+  </si>
+  <si>
+    <t>0313006500000025110670120247</t>
+  </si>
+  <si>
+    <t>0313006500000022280260120247</t>
+  </si>
+  <si>
+    <t>0313006500000022280270120245</t>
+  </si>
+  <si>
+    <t>0313006500000023814360120241</t>
+  </si>
+  <si>
+    <t>0313006500000023814370120249</t>
+  </si>
+  <si>
+    <t>0313006500000024078760120248</t>
+  </si>
+  <si>
+    <t>0313006500000024078770120246</t>
+  </si>
+  <si>
+    <t>0313007700000023059260120240</t>
+  </si>
+  <si>
+    <t>0313007700000023059270120248</t>
+  </si>
+  <si>
+    <t>31-1294-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRIS ELIZABETH CUATRO AYALA </t>
+  </si>
+  <si>
+    <t>0313006500000025080140120244</t>
+  </si>
+  <si>
+    <t>2024-03-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>3° cuota</t>
+  </si>
+  <si>
+    <t>0313006500000025080150120241</t>
+  </si>
+  <si>
+    <t>2024-04-17 00:00:00.000</t>
+  </si>
+  <si>
+    <t>4° cuota</t>
+  </si>
+  <si>
+    <t>0313006500000025080160120249</t>
+  </si>
+  <si>
+    <t>0313006500000025080170120247</t>
+  </si>
+  <si>
+    <t>0313007700000022936060120242</t>
+  </si>
+  <si>
+    <t>0313007700000022936070120240</t>
+  </si>
+  <si>
+    <t>0313006500000021564860120249</t>
+  </si>
+  <si>
+    <t>0313006500000021564870120247</t>
+  </si>
+  <si>
+    <t>46-1897-2024</t>
+  </si>
+  <si>
+    <t>JOSÉ ENRIQUE GARCÍA VALLADARES</t>
+  </si>
+  <si>
+    <t>0313007700000025141160120245</t>
+  </si>
+  <si>
+    <t>0313007700000025141170120243</t>
+  </si>
+  <si>
+    <t>0313007700000023667940120248</t>
+  </si>
+  <si>
+    <t>0313007700000023667950120245</t>
+  </si>
+  <si>
+    <t>0313007700000023667960120243</t>
+  </si>
+  <si>
+    <t>0313007700000023667970120241</t>
+  </si>
+  <si>
+    <t>0313006500000021581060120241</t>
+  </si>
+  <si>
+    <t>0313006500000021581070120249</t>
+  </si>
+  <si>
+    <t>05-0670-2024</t>
+  </si>
+  <si>
+    <t>MARÍA ALEJANDRA ORTIZ PINEDA</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN ADMINISTRACIÓN DE EMPRESAS TURÍSTICAS</t>
+  </si>
+  <si>
+    <t>0313006500000025015760120249</t>
+  </si>
+  <si>
+    <t>0313006500000025015770120247</t>
+  </si>
+  <si>
+    <t>0313007700000024094560120243</t>
+  </si>
+  <si>
+    <t>0313007700000024094570120241</t>
+  </si>
+  <si>
+    <t>0313007700000023417260120240</t>
+  </si>
+  <si>
+    <t>0313007700000023417270120248</t>
+  </si>
+  <si>
+    <t>0313007700000024594660120241</t>
+  </si>
+  <si>
+    <t>0313007700000024594670120249</t>
+  </si>
+  <si>
+    <t>53-2721-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SANDRA ELIZABETH DURAN CARLOS</t>
+  </si>
+  <si>
+    <t>LICENCIATURA EN ADMINISTRACIÓN DE EMPRESAS CON ÉNFASIS EN COMPUTACIÓN NO PRESENCIAL</t>
+  </si>
+  <si>
+    <t>0313007700000023114260120243</t>
+  </si>
+  <si>
+    <t>0313007700000023114270120241</t>
+  </si>
+  <si>
+    <t>0313007700000023872360120245</t>
+  </si>
+  <si>
+    <t>0313007700000023872370120243</t>
+  </si>
+  <si>
+    <t>46-1900-2019</t>
+  </si>
+  <si>
+    <t>AARON ALEXANDER DIAZ HERNANDEZ</t>
+  </si>
+  <si>
+    <t>0313007700000021655860120241</t>
+  </si>
+  <si>
+    <t>0313007700000021655870120249</t>
+  </si>
+  <si>
+    <t>25-1484-2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AARÓN CALEB  MEJÍA CARRANZA </t>
+  </si>
+  <si>
+    <t>0313006500000025099560120245</t>
+  </si>
+  <si>
+    <t>0313006500000025099570120243</t>
+  </si>
+  <si>
+    <t>0313006500000021028760120246</t>
+  </si>
+  <si>
+    <t>0313006500000021028770120244</t>
   </si>
 </sst>
 </file>
@@ -812,1452 +803,1452 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H2">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="I2">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="I3">
-        <v>73</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I4">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I5">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H6">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I6">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I7">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9">
+        <v>65</v>
+      </c>
+      <c r="I9">
         <v>75</v>
-      </c>
-      <c r="I9">
-        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H10">
+        <v>65</v>
+      </c>
+      <c r="I10">
         <v>75</v>
-      </c>
-      <c r="I10">
-        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H11">
+        <v>65</v>
+      </c>
+      <c r="I11">
         <v>75</v>
-      </c>
-      <c r="I11">
-        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D12" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="G12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H12">
+        <v>65</v>
+      </c>
+      <c r="I12">
         <v>75</v>
-      </c>
-      <c r="I12">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B13" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13">
         <v>65</v>
       </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13">
+      <c r="I13">
         <v>75</v>
-      </c>
-      <c r="I13">
-        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14">
         <v>65</v>
       </c>
-      <c r="D14" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14">
+      <c r="I14">
         <v>75</v>
-      </c>
-      <c r="I14">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>88</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I15">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>88</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H16">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I17">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="G18" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H18">
+        <v>65</v>
+      </c>
+      <c r="I18">
         <v>75</v>
-      </c>
-      <c r="I18">
-        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="H19">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H20">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I20">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H21">
+        <v>65</v>
+      </c>
+      <c r="I21">
         <v>75</v>
-      </c>
-      <c r="I21">
-        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H22">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I22">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>37</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I23">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H24">
+        <v>65</v>
+      </c>
+      <c r="I24">
         <v>75</v>
-      </c>
-      <c r="I24">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H25">
+        <v>65</v>
+      </c>
+      <c r="I25">
         <v>75</v>
-      </c>
-      <c r="I25">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>61</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H26">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I26">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
       </c>
       <c r="H27">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I27">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
+        <v>82</v>
       </c>
       <c r="H28">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I28">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
       <c r="H29">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I29">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G30" t="s">
         <v>9</v>
       </c>
       <c r="H30">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I30">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D31" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
       </c>
       <c r="H31">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I31">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
       </c>
       <c r="H32">
+        <v>65</v>
+      </c>
+      <c r="I32">
         <v>75</v>
-      </c>
-      <c r="I32">
-        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="C33" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
       <c r="H33">
+        <v>65</v>
+      </c>
+      <c r="I33">
         <v>75</v>
-      </c>
-      <c r="I33">
-        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G34" t="s">
         <v>9</v>
       </c>
       <c r="H34">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I34">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
       </c>
       <c r="H35">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I35">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G36" t="s">
         <v>9</v>
       </c>
       <c r="H36">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I36">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
       </c>
       <c r="H37">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I37">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B38" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G38" t="s">
         <v>9</v>
       </c>
       <c r="H38">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I38">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
       </c>
       <c r="H39">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I39">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
       </c>
       <c r="H40">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I40">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
       </c>
       <c r="H41">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I41">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G42" t="s">
         <v>9</v>
       </c>
       <c r="H42">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I42">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>113</v>
       </c>
       <c r="C43" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
       </c>
       <c r="H43">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I43">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C44" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D44" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G44" t="s">
         <v>9</v>
       </c>
       <c r="H44">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I44">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
+        <v>29</v>
       </c>
       <c r="C45" t="s">
-        <v>124</v>
+        <v>30</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
       </c>
       <c r="H45">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I45">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B46" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
       </c>
       <c r="H46">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I46">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
       </c>
       <c r="H47">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="I47">
-        <v>73</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G48" t="s">
         <v>9</v>
       </c>
       <c r="H48">
+        <v>65</v>
+      </c>
+      <c r="I48">
         <v>75</v>
-      </c>
-      <c r="I48">
-        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
       </c>
       <c r="H49">
+        <v>65</v>
+      </c>
+      <c r="I49">
         <v>75</v>
-      </c>
-      <c r="I49">
-        <v>85</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="G50" t="s">
         <v>9</v>
       </c>
       <c r="H50">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I50">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="G51" t="s">
         <v>10</v>
       </c>
       <c r="H51">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I51">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
